--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -1498,7 +1498,7 @@
         <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>5.1</v>
+        <v>5.15</v>
       </c>
       <c r="Q6" t="n">
         <v>1.45</v>
@@ -2033,10 +2033,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2366,10 +2366,10 @@
         <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
         <v>2.25</v>
@@ -2420,7 +2420,7 @@
         <v>6.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA11" t="n">
         <v>10.75</v>
@@ -2444,7 +2444,7 @@
         <v>300</v>
       </c>
       <c r="AH11" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI11" t="n">
         <v>22</v>
@@ -2544,7 +2544,7 @@
         <v>9.5</v>
       </c>
       <c r="H12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
         <v>1.36</v>
@@ -2589,7 +2589,7 @@
         <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X12" t="n">
         <v>41</v>
@@ -2604,7 +2604,7 @@
         <v>67</v>
       </c>
       <c r="AB12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC12" t="n">
         <v>11</v>
@@ -2622,7 +2622,7 @@
         <v>451</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2719,22 +2719,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2749,7 +2749,7 @@
         <v>2.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R13" t="n">
         <v>1.7</v>
@@ -2767,25 +2767,25 @@
         <v>1.9</v>
       </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD13" t="n">
         <v>6.2</v>
@@ -2800,37 +2800,37 @@
         <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO13" t="n">
         <v>13</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS13" t="n">
         <v>250</v>
@@ -2839,26 +2839,26 @@
         <v>2.75</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV13" t="n">
         <v>55</v>
       </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="AY13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BC13" t="n">
         <v>250</v>
@@ -2897,124 +2897,124 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L14" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
         <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>12.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AR14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS14" t="n">
         <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AU14" t="n">
         <v>6.7</v>
@@ -3024,19 +3024,19 @@
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AY14" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="BB14" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BC14" t="n">
         <v>250</v>
@@ -3252,39 +3252,97 @@
           <t>Maccabi Tel Aviv</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.27</v>
+      </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.09</v>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W16" t="n">
+        <v>11</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>19</v>
+      </c>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
@@ -3335,28 +3393,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J17" t="n">
         <v>2.05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -3365,10 +3423,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3383,7 +3441,7 @@
         <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
         <v>7</v>
@@ -3401,7 +3459,7 @@
         <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>8</v>
@@ -3413,7 +3471,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
         <v>17</v>
@@ -3422,16 +3480,16 @@
         <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
         <v>67</v>
       </c>
       <c r="AL17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
         <v>3.4</v>
@@ -3449,13 +3507,13 @@
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
         <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3464,7 +3522,7 @@
         <v>126</v>
       </c>
       <c r="AX17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY17" t="n">
         <v>34</v>
@@ -3479,7 +3537,7 @@
         <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD17" t="n">
         <v>126</v>
@@ -3535,40 +3593,40 @@
         <v>13</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R18" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W18" t="n">
         <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y18" t="n">
         <v>11</v>
@@ -3577,7 +3635,7 @@
         <v>6.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB18" t="n">
         <v>34</v>
@@ -3589,14 +3647,16 @@
         <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG18" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>501</v>
+      </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
         <v>81</v>
@@ -3620,7 +3680,7 @@
         <v>4.75</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>11</v>
@@ -3629,16 +3689,16 @@
         <v>34</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
         <v>12</v>
       </c>
       <c r="AV18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
         <v>126</v>
@@ -3647,19 +3707,19 @@
         <v>15</v>
       </c>
       <c r="AY18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ18" t="n">
         <v>51</v>
       </c>
       <c r="BA18" t="n">
+        <v>401</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC18" t="n">
         <v>501</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>401</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>126</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3697,28 +3757,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
         <v>2.88</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>
@@ -3739,10 +3799,10 @@
         <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W19" t="n">
         <v>9</v>
@@ -3757,7 +3817,7 @@
         <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
@@ -3766,7 +3826,7 @@
         <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3775,13 +3835,13 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH19" t="n">
         <v>6.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ19" t="n">
         <v>9.5</v>
@@ -3802,7 +3862,7 @@
         <v>21</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ19" t="n">
         <v>67</v>
@@ -3811,7 +3871,7 @@
         <v>101</v>
       </c>
       <c r="AS19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT19" t="n">
         <v>2.5</v>
@@ -3832,7 +3892,7 @@
         <v>12</v>
       </c>
       <c r="AZ19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
         <v>41</v>
@@ -4061,28 +4121,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H21" t="n">
         <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="K21" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
@@ -4097,7 +4157,7 @@
         <v>1.93</v>
       </c>
       <c r="S21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T21" t="n">
         <v>2.87</v>
@@ -4106,7 +4166,7 @@
         <v>1.87</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W21" t="n">
         <v>6.9</v>
@@ -4118,7 +4178,7 @@
         <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA21" t="n">
         <v>12</v>
@@ -4127,55 +4187,55 @@
         <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD21" t="n">
         <v>7.8</v>
       </c>
       <c r="AE21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>80</v>
       </c>
       <c r="AG21" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI21" t="n">
         <v>35</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN21" t="n">
         <v>3.35</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AP21" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS21" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT21" t="n">
         <v>2.87</v>
@@ -4188,22 +4248,22 @@
       </c>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AY21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>35</v>
       </c>
-      <c r="AZ21" t="n">
-        <v>37</v>
-      </c>
       <c r="BA21" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB21" t="n">
         <v>250</v>
       </c>
       <c r="BC21" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD21" t="inlineStr"/>
     </row>
@@ -4781,146 +4841,146 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="H25" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="I25" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="J25" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="K25" t="n">
         <v>2.4</v>
       </c>
       <c r="L25" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R25" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="U25" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="W25" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X25" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE25" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK25" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AL25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT25" t="n">
         <v>2.95</v>
       </c>
-      <c r="AO25" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.92</v>
-      </c>
       <c r="AU25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AW25" t="n">
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AY25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AZ25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA25" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BB25" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -750,7 +750,7 @@
         <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -953,16 +953,16 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1147,28 +1147,28 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
@@ -1193,7 +1193,7 @@
         <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>17</v>
@@ -1211,7 +1211,7 @@
         <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1226,7 +1226,7 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1238,7 +1238,7 @@
         <v>126</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1247,7 +1247,7 @@
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
@@ -1495,10 +1495,10 @@
         <v>14.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>5.15</v>
+        <v>5.2</v>
       </c>
       <c r="Q6" t="n">
         <v>1.45</v>
@@ -1645,88 +1645,88 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H7" t="n">
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>1.73</v>
       </c>
       <c r="K7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>19</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
         <v>8</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>9</v>
       </c>
-      <c r="Z7" t="n">
-        <v>8</v>
-      </c>
       <c r="AA7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD7" t="n">
         <v>11</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
         <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
@@ -1738,40 +1738,40 @@
         <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
         <v>15</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="AX7" t="n">
         <v>10</v>
@@ -1780,16 +1780,16 @@
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC7" t="n">
         <v>201</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>301</v>
       </c>
       <c r="BD7" t="n">
         <v>51</v>
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -2583,13 +2583,13 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
         <v>41</v>
@@ -2622,13 +2622,13 @@
         <v>451</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK12" t="n">
         <v>8.5</v>
@@ -2640,7 +2640,7 @@
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>41</v>
@@ -2897,22 +2897,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2921,22 +2921,22 @@
         <v>7.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S14" t="n">
         <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U14" t="n">
         <v>1.65</v>
@@ -2945,28 +2945,28 @@
         <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB14" t="n">
         <v>30</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE14" t="n">
         <v>12.5</v>
@@ -2975,46 +2975,46 @@
         <v>55</v>
       </c>
       <c r="AG14" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN14" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS14" t="n">
         <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU14" t="n">
         <v>6.7</v>
@@ -3024,16 +3024,16 @@
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="AY14" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB14" t="n">
         <v>90</v>
@@ -3075,46 +3075,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L15" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>9.65</v>
+        <v>9.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R15" t="n">
         <v>1.78</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T15" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U15" t="n">
         <v>1.7</v>
@@ -3123,31 +3123,31 @@
         <v>1.93</v>
       </c>
       <c r="W15" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AB15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
         <v>60</v>
@@ -3156,62 +3156,62 @@
         <v>450</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AK15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>40</v>
       </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>45</v>
-      </c>
       <c r="AR15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS15" t="n">
         <v>250</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU15" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV15" t="n">
         <v>65</v>
       </c>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BB15" t="n">
         <v>120</v>
@@ -3393,28 +3393,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J17" t="n">
         <v>2.05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -3423,10 +3423,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3459,7 +3459,7 @@
         <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
         <v>8</v>
@@ -3486,10 +3486,10 @@
         <v>67</v>
       </c>
       <c r="AL17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN17" t="n">
         <v>3.4</v>
@@ -3501,19 +3501,19 @@
         <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
         <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3537,7 +3537,7 @@
         <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD17" t="n">
         <v>126</v>
@@ -3626,7 +3626,7 @@
         <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y18" t="n">
         <v>11</v>
@@ -3707,13 +3707,13 @@
         <v>15</v>
       </c>
       <c r="AY18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ18" t="n">
         <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BB18" t="n">
         <v>351</v>
@@ -3757,13 +3757,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J19" t="n">
         <v>4.33</v>
@@ -3781,16 +3781,16 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -3799,13 +3799,13 @@
         <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -3817,7 +3817,7 @@
         <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
@@ -3826,7 +3826,7 @@
         <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3841,7 +3841,7 @@
         <v>6.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ19" t="n">
         <v>9.5</v>
@@ -3871,7 +3871,7 @@
         <v>101</v>
       </c>
       <c r="AS19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT19" t="n">
         <v>2.5</v>
@@ -4477,16 +4477,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H23" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K23" t="n">
         <v>2.63</v>
@@ -4531,7 +4531,7 @@
         <v>41</v>
       </c>
       <c r="Y23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
         <v>81</v>
@@ -4549,16 +4549,16 @@
         <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
         <v>8</v>
@@ -4606,16 +4606,16 @@
         <v>276</v>
       </c>
       <c r="AX23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB23" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
         <v>2.75</v>
@@ -983,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
         <v>41</v>
@@ -1321,10 +1321,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.62</v>
@@ -1471,22 +1471,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.57</v>
       </c>
       <c r="K6" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="L6" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1495,16 +1495,16 @@
         <v>14.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q6" t="n">
         <v>1.45</v>
       </c>
       <c r="R6" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.22</v>
@@ -1513,7 +1513,7 @@
         <v>3.8</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>1.65</v>
@@ -1522,13 +1522,13 @@
         <v>8.25</v>
       </c>
       <c r="X6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
         <v>10.5</v>
@@ -1537,10 +1537,10 @@
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1552,34 +1552,34 @@
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI6" t="n">
         <v>100</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK6" t="n">
         <v>450</v>
       </c>
       <c r="AL6" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AR6" t="n">
         <v>35</v>
@@ -1588,7 +1588,7 @@
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AU6" t="n">
         <v>9.25</v>
@@ -1601,14 +1601,16 @@
         <v>11.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AZ6" t="n">
         <v>55</v>
       </c>
-      <c r="BA6" t="inlineStr"/>
+      <c r="BA6" t="n">
+        <v>500</v>
+      </c>
       <c r="BB6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -1645,127 +1647,127 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>23</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO7" t="n">
         <v>5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>19</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1774,22 +1776,22 @@
         <v>351</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>41</v>
       </c>
-      <c r="AZ7" t="n">
-        <v>34</v>
-      </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD7" t="n">
         <v>51</v>
@@ -1827,19 +1829,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="J8" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.78</v>
@@ -1848,55 +1850,55 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="T8" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="X8" t="n">
         <v>65</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="n">
         <v>110</v>
       </c>
-      <c r="AB8" t="n">
-        <v>90</v>
-      </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>24</v>
@@ -1905,44 +1907,44 @@
         <v>120</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AI8" t="n">
         <v>6.7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>8.75</v>
       </c>
       <c r="AL8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ8" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AR8" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AU8" t="n">
         <v>8.75</v>
@@ -1952,7 +1954,7 @@
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AY8" t="n">
         <v>5.9</v>
@@ -2003,13 +2005,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
         <v>2.75</v>
@@ -2072,7 +2074,7 @@
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2087,25 +2089,25 @@
         <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -2141,7 +2143,7 @@
         <v>26</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
         <v>81</v>
@@ -2541,7 +2543,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -2559,10 +2561,10 @@
         <v>1.83</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
@@ -2571,16 +2573,16 @@
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
         <v>2.05</v>
@@ -2595,19 +2597,19 @@
         <v>41</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
         <v>101</v>
       </c>
       <c r="AA12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB12" t="n">
         <v>51</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>9</v>
@@ -2619,16 +2621,16 @@
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI12" t="n">
         <v>6.5</v>
       </c>
-      <c r="AI12" t="n">
-        <v>6</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
         <v>8.5</v>
@@ -2655,10 +2657,10 @@
         <v>201</v>
       </c>
       <c r="AS12" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
         <v>9.5</v>
@@ -2668,7 +2670,7 @@
       </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AY12" t="n">
         <v>6.5</v>
@@ -3253,30 +3255,30 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.38</v>
+        <v>4.67</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J16" t="n">
-        <v>4.94</v>
+        <v>5.04</v>
       </c>
       <c r="K16" t="n">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="L16" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q16" t="n">
         <v>1.71</v>
@@ -3293,16 +3295,16 @@
         <v>2.02</v>
       </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
         <v>35</v>
@@ -3314,7 +3316,7 @@
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
@@ -3329,19 +3331,19 @@
         <v>6.2</v>
       </c>
       <c r="AI16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AJ16" t="n">
         <v>6.4</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AL16" t="n">
         <v>10</v>
       </c>
       <c r="AM16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
@@ -3393,7 +3395,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
@@ -3405,28 +3407,28 @@
         <v>2.05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3459,13 +3461,13 @@
         <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
@@ -3486,7 +3488,7 @@
         <v>67</v>
       </c>
       <c r="AL17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
@@ -3501,19 +3503,19 @@
         <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
         <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3537,7 +3539,7 @@
         <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD17" t="n">
         <v>126</v>
@@ -3578,7 +3580,7 @@
         <v>1.14</v>
       </c>
       <c r="H18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
         <v>19</v>
@@ -3590,13 +3592,13 @@
         <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O18" t="n">
         <v>1.13</v>
@@ -3605,16 +3607,16 @@
         <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R18" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U18" t="n">
         <v>2.25</v>
@@ -3626,7 +3628,7 @@
         <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y18" t="n">
         <v>11</v>
@@ -3644,7 +3646,7 @@
         <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3656,7 +3658,7 @@
         <v>501</v>
       </c>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
         <v>81</v>
@@ -3665,13 +3667,13 @@
         <v>41</v>
       </c>
       <c r="AK18" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL18" t="n">
         <v>126</v>
       </c>
       <c r="AM18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="n">
         <v>3.1</v>
@@ -3692,10 +3694,10 @@
         <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV18" t="n">
         <v>67</v>
@@ -3704,16 +3706,16 @@
         <v>126</v>
       </c>
       <c r="AX18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ18" t="n">
         <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BB18" t="n">
         <v>351</v>
@@ -3757,19 +3759,19 @@
         </is>
       </c>
       <c r="G19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.4</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
         <v>4.33</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
         <v>2.88</v>
@@ -3805,7 +3807,7 @@
         <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -3823,10 +3825,10 @@
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3835,7 +3837,7 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH19" t="n">
         <v>6.5</v>
@@ -3844,7 +3846,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>19</v>
@@ -3862,7 +3864,7 @@
         <v>21</v>
       </c>
       <c r="AP19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ19" t="n">
         <v>67</v>
@@ -3892,7 +3894,7 @@
         <v>12</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA19" t="n">
         <v>41</v>
@@ -3969,10 +3971,10 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R20" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4299,22 +4301,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H22" t="n">
         <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="K22" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L22" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -4329,16 +4331,16 @@
         <v>3.95</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S22" t="n">
         <v>1.32</v>
       </c>
       <c r="T22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="U22" t="n">
         <v>1.85</v>
@@ -4347,7 +4349,7 @@
         <v>1.85</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X22" t="n">
         <v>7</v>
@@ -4356,10 +4358,10 @@
         <v>8.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB22" t="n">
         <v>25</v>
@@ -4371,7 +4373,7 @@
         <v>8.75</v>
       </c>
       <c r="AE22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF22" t="n">
         <v>80</v>
@@ -4386,37 +4388,37 @@
         <v>45</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AL22" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AM22" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN22" t="n">
         <v>3.3</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS22" t="n">
         <v>200</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU22" t="n">
         <v>8</v>
@@ -4426,22 +4428,22 @@
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AY22" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ22" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA22" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB22" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC22" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD22" t="inlineStr"/>
     </row>
@@ -4507,10 +4509,10 @@
         <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S23" t="n">
         <v>1.25</v>
@@ -4668,7 +4670,7 @@
         <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K24" t="n">
         <v>2.88</v>
@@ -4701,10 +4703,10 @@
         <v>4.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V24" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W24" t="n">
         <v>13</v>
@@ -4722,7 +4724,7 @@
         <v>10</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
         <v>29</v>
@@ -4740,7 +4742,7 @@
         <v>101</v>
       </c>
       <c r="AH24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>41</v>
@@ -4779,7 +4781,7 @@
         <v>4.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>41</v>
@@ -4794,10 +4796,10 @@
         <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB24" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UR0TxbTq</t>
+          <t>pvoFaWr4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ENGLAND - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.05</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.29</v>
       </c>
-      <c r="P2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W2" t="n">
         <v>11</v>
       </c>
       <c r="X2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
         <v>19</v>
       </c>
-      <c r="Y2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>26</v>
       </c>
-      <c r="AN2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>67</v>
-      </c>
       <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
         <v>81</v>
       </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AY2" t="n">
         <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BC2" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E9XIRWCr</t>
+          <t>UR0TxbTq</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,177 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.95</v>
       </c>
-      <c r="L3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.4</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="n">
         <v>17</v>
       </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA3" t="n">
         <v>41</v>
       </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC3" t="n">
         <v>151</v>
       </c>
-      <c r="BB3" t="n">
-        <v>451</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dn2dujsr</t>
+          <t>E9XIRWCr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1100,31 +1102,31 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1133,22 +1135,22 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.53</v>
       </c>
-      <c r="P4" t="n">
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.38</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.2</v>
       </c>
       <c r="U4" t="n">
         <v>2.25</v>
@@ -1160,22 +1162,22 @@
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1188,16 +1190,16 @@
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1206,25 +1208,25 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1233,34 +1235,34 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>6.5</v>
       </c>
       <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>41</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>101</v>
-      </c>
       <c r="BA4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB4" t="n">
         <v>151</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>451</v>
       </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0fFp5f9l</t>
+          <t>dn2dujsr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,173 +1272,177 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AZERBAIJAN - PREMIER LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Qarabag</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sumqayit</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>11.75</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.57</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W5" t="n">
-        <v>8.25</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP5" t="n">
         <v>29</v>
       </c>
-      <c r="AC5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY5" t="n">
         <v>26</v>
       </c>
-      <c r="AF5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>55</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>500</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>450</v>
-      </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6k1eBeD4</t>
+          <t>0fFp5f9l</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1446,125 +1452,125 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Qarabag</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Sumqayit</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN6" t="n">
         <v>3.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>10</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>11</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
         <v>5</v>
@@ -1573,52 +1579,46 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AR6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.33</v>
+        <v>3.55</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>13</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>51</v>
+        <v>11.25</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AZ6" t="n">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>51</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C2dYeRBL</t>
+          <t>6k1eBeD4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1628,173 +1628,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nea Salamis</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pafos</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>1.17</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.34</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>7.6</v>
+        <v>1.53</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.78</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>2.07</v>
+        <v>3.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="T7" t="n">
-        <v>3.05</v>
+        <v>4.33</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>65</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>300</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU7" t="n">
         <v>10</v>
       </c>
-      <c r="AE7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>450</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>450</v>
-      </c>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AV7" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.1</v>
+        <v>351</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.9</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>16.5</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ATxxgG3m</t>
+          <t>C2dYeRBL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1804,179 +1810,173 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Nea Salamis</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>8.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>1.34</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>7.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="Y8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9</v>
       </c>
-      <c r="Z8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AK8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>400</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>400</v>
+      </c>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>17</v>
       </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>16.5</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IgGmuFrJ</t>
+          <t>ATxxgG3m</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1986,175 +1986,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rustavi</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Telavi</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.98</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.55</v>
-      </c>
       <c r="R9" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>10.75</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="n">
         <v>21</v>
       </c>
-      <c r="AC9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.1</v>
+        <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>9.75</v>
+        <v>5.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="BA9" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>175</v>
-      </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jsPWrcqf</t>
+          <t>IgGmuFrJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2164,7 +2168,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2174,165 +2178,165 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gagra</t>
+          <t>Rustavi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bolnisi</t>
+          <t>Telavi</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>2.72</v>
       </c>
       <c r="H10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.3</v>
       </c>
-      <c r="I10" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.25</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W10" t="n">
-        <v>6.2</v>
+        <v>8.25</v>
       </c>
       <c r="X10" t="n">
-        <v>7.2</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC10" t="n">
         <v>10.75</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.5</v>
       </c>
       <c r="AD10" t="n">
         <v>5.7</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AF10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH10" t="n">
-        <v>10.5</v>
+        <v>7.3</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>9.75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12.5</v>
+        <v>7.7</v>
       </c>
       <c r="AK10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>65</v>
       </c>
-      <c r="AL10" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>28</v>
-      </c>
       <c r="AR10" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AS10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6.5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>30</v>
+        <v>4.25</v>
       </c>
       <c r="AY10" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AZ10" t="n">
-        <v>200</v>
+        <v>19.5</v>
       </c>
       <c r="BA10" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC10" t="n">
         <v>250</v>
       </c>
-      <c r="BB10" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WYc15fY1</t>
+          <t>jsPWrcqf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2342,175 +2346,175 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Gagra</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus</t>
+          <t>Bolnisi</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>4.75</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>1.33</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>2.47</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="L11" t="n">
-        <v>1.83</v>
+        <v>4.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>8.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>3.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="T11" t="n">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="U11" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>1.7</v>
+        <v>2.01</v>
       </c>
       <c r="W11" t="n">
-        <v>21</v>
+        <v>6.2</v>
       </c>
       <c r="X11" t="n">
-        <v>41</v>
+        <v>7.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>26</v>
+        <v>6.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="AA11" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>67</v>
+        <v>19.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>9.25</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AG11" t="n">
-        <v>401</v>
+        <v>300</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>8.5</v>
+        <v>45</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>41</v>
+        <v>9.75</v>
       </c>
       <c r="AP11" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="AR11" t="n">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="AS11" t="n">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>3.25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC11" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>350</v>
+      </c>
       <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2kbkiJNs</t>
+          <t>WYc15fY1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2520,175 +2524,175 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Olympiacos Piraeus</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.47</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>1.33</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R12" t="n">
         <v>2.1</v>
       </c>
-      <c r="L12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.7</v>
       </c>
-      <c r="S12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.9</v>
-      </c>
       <c r="W12" t="n">
-        <v>7.9</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC12" t="n">
         <v>12</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AD12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.4</v>
-      </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AQ12" t="n">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="AR12" t="n">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.7</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.65</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>14</v>
+        <v>3.25</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="BA12" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC12" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>151</v>
+      </c>
       <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>z3dckchf</t>
+          <t>2kbkiJNs</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2708,165 +2712,165 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.12</v>
+        <v>2.65</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="R13" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="T13" t="n">
-        <v>2.47</v>
+        <v>2.69</v>
       </c>
       <c r="U13" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>10.25</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK13" t="n">
         <v>30</v>
       </c>
-      <c r="AB13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AL13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>55</v>
       </c>
-      <c r="AG13" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>100</v>
-      </c>
       <c r="AR13" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AS13" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.45</v>
+        <v>2.77</v>
       </c>
       <c r="AU13" t="n">
         <v>6.7</v>
       </c>
       <c r="AV13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>11.25</v>
+        <v>4.6</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="BB13" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC13" t="n">
         <v>250</v>
       </c>
-      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WUk6myN6</t>
+          <t>z3dckchf</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2876,7 +2880,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2886,165 +2890,165 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PSBS Biak Numfor</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.98</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.62</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L14" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>9.75</v>
+        <v>7.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
         <v>1.78</v>
       </c>
       <c r="S14" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V14" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W14" t="n">
-        <v>7.4</v>
+        <v>9.75</v>
       </c>
       <c r="X14" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC14" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AD14" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AK14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV14" t="n">
         <v>60</v>
       </c>
-      <c r="AG14" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH14" t="n">
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY14" t="n">
         <v>11</v>
       </c>
-      <c r="AI14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="AZ14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>70</v>
+      </c>
+      <c r="BC14" t="n">
         <v>250</v>
       </c>
-      <c r="AT14" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GpG2fpdL</t>
+          <t>WUk6myN6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3054,137 +3058,175 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>PSBS Biak Numfor</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.56</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>1.66</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.95</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.34</v>
+        <v>2.07</v>
       </c>
       <c r="L15" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+        <v>3.9</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9.65</v>
+      </c>
       <c r="O15" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+        <v>1.78</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.55</v>
+      </c>
       <c r="U15" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>9.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="AB15" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG15" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.2</v>
+        <v>10.25</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.6</v>
+        <v>18.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.4</v>
+        <v>11.75</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP15" t="n">
         <v>19</v>
       </c>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
+      <c r="AQ15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>65</v>
+      </c>
       <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
+      <c r="AX15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>350</v>
+      </c>
       <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MmEGPdCi</t>
+          <t>GpG2fpdL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3194,41 +3236,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.48</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.38</v>
       </c>
       <c r="L16" t="n">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -3243,130 +3285,126 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.8</v>
       </c>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Z16" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
         <v>8</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="AI16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP16" t="n">
         <v>34</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="AR16" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY16" t="n">
         <v>8</v>
       </c>
-      <c r="AX16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY16" t="n">
+      <c r="AZ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB16" t="n">
         <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>301</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
       </c>
-      <c r="BD16" t="n">
-        <v>126</v>
-      </c>
+      <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ak8zTA1n</t>
+          <t>MmEGPdCi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3376,7 +3414,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3386,160 +3424,160 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.14</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
         <v>7</v>
       </c>
-      <c r="I17" t="n">
+      <c r="X17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE17" t="n">
         <v>19</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP17" t="n">
         <v>19</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P17" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AQ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR17" t="n">
         <v>41</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>34</v>
       </c>
       <c r="AS17" t="n">
         <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="AX17" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="AY17" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD17" t="n">
         <v>126</v>
@@ -3548,7 +3586,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CE4iPS0B</t>
+          <t>Ak8zTA1n</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3558,7 +3596,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3568,160 +3606,160 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.5</v>
+        <v>1.14</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>2.1</v>
+        <v>19</v>
       </c>
       <c r="J18" t="n">
-        <v>4.33</v>
+        <v>1.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>2.88</v>
+        <v>12</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="S18" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="T18" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W18" t="n">
         <v>9</v>
       </c>
       <c r="X18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
         <v>17</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AD18" t="n">
         <v>13</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AE18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>41</v>
       </c>
-      <c r="AA18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AK18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP18" t="n">
         <v>17</v>
       </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM18" t="n">
+      <c r="AQ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR18" t="n">
         <v>34</v>
       </c>
-      <c r="AN18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>101</v>
-      </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AV18" t="n">
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="AX18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AZ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>401</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC18" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3730,7 +3768,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>zTsAXwtP</t>
+          <t>CE4iPS0B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3740,179 +3778,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD19" t="n">
         <v>6</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>11</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH19" t="n">
         <v>7</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AI19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB19" t="n">
         <v>67</v>
       </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ19" t="n">
+      <c r="BC19" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD19" t="n">
         <v>126</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vmPwbcL8</t>
+          <t>zTsAXwtP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3922,32 +3960,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>2.2</v>
@@ -3956,141 +3994,145 @@
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="R20" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="X20" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
         <v>12</v>
       </c>
-      <c r="AA20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AI20" t="n">
         <v>26</v>
       </c>
-      <c r="AC20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN20" t="n">
         <v>3.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
         <v>26</v>
       </c>
       <c r="AR20" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AV20" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.5</v>
+        <v>81</v>
       </c>
       <c r="AX20" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="AY20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AZ20" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BB20" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SjMjxGbk</t>
+          <t>vmPwbcL8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4100,7 +4142,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4110,165 +4152,165 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="H21" t="n">
-        <v>4.35</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="J21" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="R21" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="S21" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="T21" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="W21" t="n">
-        <v>8.25</v>
+        <v>6.9</v>
       </c>
       <c r="X21" t="n">
         <v>7.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="AE21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF21" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AG21" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AM21" t="n">
         <v>50</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AP21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AS21" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="AU21" t="n">
         <v>7.6</v>
       </c>
       <c r="AV21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>7.7</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>32</v>
       </c>
-      <c r="AY21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ21" t="n">
+      <c r="BA21" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB21" t="n">
         <v>200</v>
       </c>
-      <c r="BA21" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC21" t="inlineStr"/>
+      <c r="BC21" t="n">
+        <v>450</v>
+      </c>
       <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2kIGj2E6</t>
+          <t>SjMjxGbk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4278,179 +4320,175 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X22" t="n">
         <v>7.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>19</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2</v>
-      </c>
-      <c r="W22" t="n">
-        <v>23</v>
-      </c>
-      <c r="X22" t="n">
-        <v>41</v>
-      </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>8.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>81</v>
+        <v>9.75</v>
       </c>
       <c r="AA22" t="n">
-        <v>51</v>
+        <v>10.75</v>
       </c>
       <c r="AB22" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AC22" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AG22" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="n">
         <v>8</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AY22" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AZ22" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="BA22" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="BB22" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="BC22" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>301</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23ck51Ta</t>
+          <t>2kIGj2E6</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4460,7 +4498,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4470,85 +4508,85 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.36</v>
+        <v>7</v>
       </c>
       <c r="H23" t="n">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="I23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J23" t="n">
         <v>6.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>17</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.73</v>
       </c>
-      <c r="K23" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L23" t="n">
-        <v>6</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>26</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P23" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V23" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD23" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4557,73 +4595,73 @@
         <v>41</v>
       </c>
       <c r="AG23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC23" t="n">
         <v>101</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>251</v>
       </c>
       <c r="BD23" t="n">
         <v>301</v>
@@ -4632,7 +4670,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pMFYXKbd</t>
+          <t>23ck51Ta</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4642,170 +4680,352 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Dyn. Kyiv</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Veres-Rivne</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="H24" t="n">
-        <v>5.1</v>
+        <v>5.75</v>
       </c>
       <c r="I24" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="K24" t="n">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="L24" t="n">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
+        <v>26</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W24" t="n">
+        <v>13</v>
+      </c>
+      <c r="X24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>15</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W24" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X24" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Y24" t="n">
+      <c r="AR24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX24" t="n">
         <v>9</v>
       </c>
-      <c r="Z24" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>55</v>
-      </c>
       <c r="AY24" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>450</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="BB24" t="n">
         <v>81</v>
       </c>
       <c r="BC24" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pMFYXKbd</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Dyn. Kyiv</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW25" t="n">
         <v>81</v>
       </c>
-      <c r="BD24" t="n">
+      <c r="AX25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>450</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD25" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -771,10 +771,10 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.5</v>
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2029,16 +2029,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2056,13 +2056,13 @@
         <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2074,7 +2074,7 @@
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2134,10 +2134,10 @@
         <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ9" t="n">
         <v>26</v>
@@ -2149,7 +2149,7 @@
         <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
@@ -2205,122 +2205,122 @@
         <v>2.85</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>3.68</v>
+        <v>3.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>3.04</v>
+        <v>2.52</v>
       </c>
       <c r="U10" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="W10" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z10" t="n">
         <v>25</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV10" t="n">
         <v>65</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>60</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AY10" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AZ10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BA10" t="n">
         <v>50</v>
@@ -2389,10 +2389,10 @@
         <v>8.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="Q11" t="n">
         <v>1.85</v>
@@ -2721,28 +2721,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="H13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.2</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L13" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O13" t="n">
         <v>1.31</v>
@@ -2769,19 +2769,19 @@
         <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
         <v>32</v>
@@ -2790,7 +2790,7 @@
         <v>9.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE13" t="n">
         <v>13.5</v>
@@ -2802,34 +2802,34 @@
         <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>30</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP13" t="n">
         <v>20</v>
       </c>
       <c r="AQ13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR13" t="n">
         <v>90</v>
@@ -2838,32 +2838,32 @@
         <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV13" t="n">
         <v>55</v>
       </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="AY13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB13" t="n">
         <v>80</v>
       </c>
       <c r="BC13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD13" t="inlineStr"/>
     </row>
@@ -2899,28 +2899,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J14" t="n">
         <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.28</v>
@@ -2938,40 +2938,40 @@
         <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U14" t="n">
         <v>1.65</v>
       </c>
       <c r="V14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
         <v>9.75</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
         <v>11.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF14" t="n">
         <v>55</v>
@@ -2980,22 +2980,22 @@
         <v>400</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI14" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
         <v>16.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN14" t="n">
         <v>5.2</v>
@@ -3016,10 +3016,10 @@
         <v>350</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV14" t="n">
         <v>60</v>
@@ -3029,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AZ14" t="n">
         <v>18.5</v>
@@ -3285,10 +3285,10 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
         <v>1.33</v>
@@ -3433,16 +3433,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K17" t="n">
         <v>2.38</v>
@@ -3463,16 +3463,16 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
         <v>1.95</v>
@@ -3502,7 +3502,7 @@
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3523,7 +3523,7 @@
         <v>21</v>
       </c>
       <c r="AK17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="n">
         <v>51</v>
@@ -3535,7 +3535,7 @@
         <v>3.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
         <v>19</v>
@@ -3550,7 +3550,7 @@
         <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
         <v>9</v>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H18" t="n">
         <v>7</v>
@@ -3624,7 +3624,7 @@
         <v>19</v>
       </c>
       <c r="J18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -3633,10 +3633,10 @@
         <v>12</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
         <v>1.13</v>
@@ -3663,7 +3663,7 @@
         <v>1.62</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
         <v>6.5</v>
@@ -3696,7 +3696,7 @@
         <v>501</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
         <v>81</v>
@@ -3711,13 +3711,13 @@
         <v>126</v>
       </c>
       <c r="AM18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN18" t="n">
         <v>3.2</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AP18" t="n">
         <v>17</v>
@@ -3756,7 +3756,7 @@
         <v>401</v>
       </c>
       <c r="BB18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC18" t="n">
         <v>501</v>
@@ -3797,28 +3797,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3839,16 +3839,16 @@
         <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
         <v>9.5</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
         <v>13</v>
@@ -3857,7 +3857,7 @@
         <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
@@ -3866,7 +3866,7 @@
         <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3875,13 +3875,13 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ19" t="n">
         <v>9</v>
@@ -3890,7 +3890,7 @@
         <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM19" t="n">
         <v>29</v>
@@ -4057,7 +4057,7 @@
         <v>67</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH20" t="n">
         <v>12</v>
@@ -4339,79 +4339,79 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="H22" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="K22" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L22" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>8.25</v>
       </c>
       <c r="X22" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y22" t="n">
         <v>8.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AA22" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB22" t="n">
         <v>22</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
         <v>65</v>
@@ -4420,43 +4420,43 @@
         <v>400</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM22" t="n">
         <v>45</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>50</v>
-      </c>
       <c r="AN22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AP22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS22" t="n">
         <v>175</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AU22" t="n">
         <v>7.5</v>
@@ -4466,19 +4466,19 @@
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AY22" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AZ22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA22" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB22" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC22" t="n">
         <v>350</v>
@@ -4517,22 +4517,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H23" t="n">
         <v>4.75</v>
       </c>
       <c r="I23" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="J23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
         <v>2.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -4541,16 +4541,16 @@
         <v>17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S23" t="n">
         <v>1.25</v>
@@ -4559,22 +4559,22 @@
         <v>3.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X23" t="n">
         <v>41</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA23" t="n">
         <v>41</v>
@@ -4607,7 +4607,7 @@
         <v>8.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>11</v>
@@ -4616,28 +4616,28 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP23" t="n">
         <v>34</v>
       </c>
       <c r="AQ23" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR23" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
         <v>3.75</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
@@ -4649,16 +4649,16 @@
         <v>3.6</v>
       </c>
       <c r="AY23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC23" t="n">
         <v>101</v>
@@ -4881,40 +4881,40 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="I25" t="n">
         <v>9.25</v>
       </c>
       <c r="J25" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K25" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="L25" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="O25" t="n">
         <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R25" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
         <v>1.32</v>
@@ -4929,28 +4929,28 @@
         <v>1.6</v>
       </c>
       <c r="W25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X25" t="n">
         <v>5.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB25" t="n">
         <v>32</v>
       </c>
       <c r="AC25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>65</v>
@@ -4981,13 +4981,13 @@
         <v>3</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AP25" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>45</v>
@@ -4996,7 +4996,7 @@
         <v>250</v>
       </c>
       <c r="AT25" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU25" t="n">
         <v>9.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -756,7 +756,7 @@
         <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
@@ -771,10 +771,10 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.5</v>
@@ -783,10 +783,10 @@
         <v>2.63</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.53</v>
@@ -795,7 +795,7 @@
         <v>2.38</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -825,7 +825,7 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -864,10 +864,10 @@
         <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -953,16 +953,16 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1076,7 +1076,7 @@
         <v>151</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1129,10 +1129,10 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1153,22 +1153,22 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
@@ -1193,7 +1193,7 @@
         <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>17</v>
@@ -1294,10 +1294,10 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1309,16 +1309,16 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1333,19 +1333,19 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
         <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>17</v>
@@ -1357,16 +1357,16 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
@@ -1409,7 +1409,7 @@
         <v>2.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1433,7 +1433,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1471,19 +1471,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="K6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L6" t="n">
         <v>8.75</v>
@@ -1498,13 +1498,13 @@
         <v>1.09</v>
       </c>
       <c r="P6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q6" t="n">
         <v>1.42</v>
       </c>
       <c r="R6" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="S6" t="n">
         <v>1.22</v>
@@ -1525,34 +1525,34 @@
         <v>6.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AI6" t="n">
         <v>100</v>
@@ -1561,7 +1561,7 @@
         <v>37</v>
       </c>
       <c r="AK6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL6" t="n">
         <v>150</v>
@@ -1573,22 +1573,22 @@
         <v>3.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AU6" t="n">
         <v>9.25</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AY6" t="n">
         <v>65</v>
@@ -1829,28 +1829,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="I8" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="J8" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="K8" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
@@ -1868,7 +1868,7 @@
         <v>1.35</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U8" t="n">
         <v>2.02</v>
@@ -1877,28 +1877,28 @@
         <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="X8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="n">
         <v>100</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>24</v>
@@ -1910,13 +1910,13 @@
         <v>1250</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI8" t="n">
         <v>6.6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK8" t="n">
         <v>8.75</v>
@@ -1928,33 +1928,33 @@
         <v>32</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ8" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AR8" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>90</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AY8" t="n">
         <v>6</v>
@@ -1966,7 +1966,7 @@
         <v>16.5</v>
       </c>
       <c r="BB8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BC8" t="n">
         <v>250</v>
@@ -2023,22 +2023,22 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
@@ -2205,19 +2205,19 @@
         <v>2.85</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>10.8</v>
+        <v>8.65</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
         <v>1.72</v>
@@ -2229,58 +2229,58 @@
         <v>2.52</v>
       </c>
       <c r="U10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="W10" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X10" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
         <v>25</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF10" t="n">
         <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>7.8</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM10" t="n">
         <v>23</v>
@@ -2289,38 +2289,38 @@
         <v>4.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR10" t="n">
         <v>100</v>
       </c>
       <c r="AS10" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AY10" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AZ10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA10" t="n">
         <v>50</v>
@@ -2389,10 +2389,10 @@
         <v>8.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="Q11" t="n">
         <v>1.85</v>
@@ -2546,37 +2546,37 @@
         <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K12" t="n">
         <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2591,16 +2591,16 @@
         <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AA12" t="n">
         <v>67</v>
@@ -2612,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2621,19 +2621,19 @@
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH12" t="n">
         <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL12" t="n">
         <v>12</v>
@@ -2642,7 +2642,7 @@
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>41</v>
@@ -2657,7 +2657,7 @@
         <v>201</v>
       </c>
       <c r="AS12" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT12" t="n">
         <v>3.25</v>
@@ -2670,10 +2670,10 @@
       </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AY12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AZ12" t="n">
         <v>19</v>
@@ -2721,137 +2721,137 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>8.199999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="T13" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W13" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB13" t="n">
         <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE13" t="n">
         <v>13.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG13" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH13" t="n">
         <v>8.25</v>
       </c>
       <c r="AI13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM13" t="n">
         <v>27</v>
       </c>
-      <c r="AL13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>30</v>
-      </c>
       <c r="AN13" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV13" t="n">
         <v>60</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>55</v>
       </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="AY13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ13" t="n">
         <v>19</v>
@@ -2860,10 +2860,10 @@
         <v>50</v>
       </c>
       <c r="BB13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BC13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD13" t="inlineStr"/>
     </row>
@@ -2899,46 +2899,46 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L14" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
         <v>1.78</v>
       </c>
       <c r="S14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="U14" t="n">
         <v>1.65</v>
@@ -2947,25 +2947,25 @@
         <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB14" t="n">
         <v>35</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD14" t="n">
         <v>6.1</v>
@@ -2980,46 +2980,46 @@
         <v>400</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AI14" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
         <v>16.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN14" t="n">
         <v>5.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS14" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV14" t="n">
         <v>60</v>
@@ -3029,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="AY14" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AZ14" t="n">
         <v>18.5</v>
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H15" t="n">
         <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="K15" t="n">
         <v>2.07</v>
       </c>
       <c r="L15" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -3122,10 +3122,10 @@
         <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
         <v>9.75</v>
@@ -3134,13 +3134,13 @@
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
@@ -3152,37 +3152,37 @@
         <v>14</v>
       </c>
       <c r="AF15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG15" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH15" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI15" t="n">
         <v>18.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK15" t="n">
         <v>45</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO15" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>40</v>
@@ -3207,19 +3207,19 @@
         <v>5.2</v>
       </c>
       <c r="AY15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA15" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC15" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD15" t="inlineStr"/>
     </row>
@@ -3255,55 +3255,55 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W16" t="n">
         <v>13</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W16" t="n">
-        <v>15</v>
       </c>
       <c r="X16" t="n">
         <v>29</v>
@@ -3321,37 +3321,37 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>7</v>
@@ -3366,38 +3366,38 @@
         <v>101</v>
       </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AY16" t="n">
         <v>8</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
@@ -3433,58 +3433,58 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
         <v>6.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.75</v>
       </c>
-      <c r="R17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
@@ -3493,25 +3493,25 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH17" t="n">
         <v>17</v>
@@ -3535,28 +3535,28 @@
         <v>3.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="n">
         <v>126</v>
@@ -3571,13 +3571,13 @@
         <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB17" t="n">
         <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD17" t="n">
         <v>126</v>
@@ -3621,7 +3621,7 @@
         <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J18" t="n">
         <v>1.53</v>
@@ -3630,13 +3630,13 @@
         <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O18" t="n">
         <v>1.13</v>
@@ -3645,10 +3645,10 @@
         <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R18" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S18" t="n">
         <v>1.22</v>
@@ -3657,13 +3657,13 @@
         <v>4</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
         <v>6.5</v>
@@ -3672,13 +3672,13 @@
         <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA18" t="n">
         <v>11</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
         <v>17</v>
@@ -3687,31 +3687,31 @@
         <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
         <v>81</v>
       </c>
       <c r="AG18" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
       </c>
       <c r="AK18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AM18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="n">
         <v>3.2</v>
@@ -3753,13 +3753,13 @@
         <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BB18" t="n">
         <v>301</v>
       </c>
       <c r="BC18" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3797,19 +3797,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J19" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
         <v>2.75</v>
@@ -3818,7 +3818,7 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3827,109 +3827,109 @@
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
         <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
         <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
       </c>
       <c r="AC19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI19" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>9</v>
       </c>
       <c r="AJ19" t="n">
         <v>9</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV19" t="n">
         <v>67</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
       </c>
       <c r="AW19" t="n">
         <v>126</v>
       </c>
       <c r="AX19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ19" t="n">
         <v>23</v>
@@ -4167,13 +4167,13 @@
         <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
@@ -4182,7 +4182,7 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O21" t="n">
         <v>1.27</v>
@@ -4191,28 +4191,28 @@
         <v>3.4</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.82</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.83</v>
       </c>
       <c r="V21" t="n">
         <v>1.88</v>
       </c>
       <c r="W21" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -4227,10 +4227,10 @@
         <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
@@ -4245,13 +4245,13 @@
         <v>13.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
         <v>15.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="n">
         <v>45</v>
@@ -4263,22 +4263,22 @@
         <v>3.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AP21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS21" t="n">
         <v>250</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AU21" t="n">
         <v>7.6</v>
@@ -4339,149 +4339,149 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
       <c r="J22" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="K22" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="L22" t="n">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R22" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="S22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W22" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="Y22" t="n">
         <v>8.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="AA22" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI22" t="n">
         <v>65</v>
       </c>
-      <c r="AG22" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI22" t="n">
+      <c r="AJ22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR22" t="n">
         <v>37</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>45</v>
       </c>
       <c r="AS22" t="n">
         <v>175</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AV22" t="n">
         <v>60</v>
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>7.3</v>
+        <v>9.25</v>
       </c>
       <c r="AY22" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AZ22" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="BA22" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="BB22" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BC22" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD22" t="inlineStr"/>
     </row>
@@ -4517,46 +4517,46 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U23" t="n">
         <v>1.67</v>
@@ -4568,7 +4568,7 @@
         <v>21</v>
       </c>
       <c r="X23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y23" t="n">
         <v>19</v>
@@ -4586,10 +4586,10 @@
         <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -4598,10 +4598,10 @@
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>8.5</v>
@@ -4616,13 +4616,13 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
       </c>
       <c r="AP23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
         <v>101</v>
@@ -4634,19 +4634,19 @@
         <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU23" t="n">
         <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="AX23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY23" t="n">
         <v>7</v>
@@ -4881,19 +4881,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H25" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
         <v>9.25</v>
       </c>
       <c r="J25" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K25" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="L25" t="n">
         <v>7.8</v>
@@ -4902,7 +4902,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.21</v>
@@ -4914,7 +4914,7 @@
         <v>1.65</v>
       </c>
       <c r="R25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>1.32</v>
@@ -4923,22 +4923,22 @@
         <v>3.2</v>
       </c>
       <c r="U25" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W25" t="n">
         <v>6.6</v>
       </c>
       <c r="X25" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AA25" t="n">
         <v>11.5</v>
@@ -4947,16 +4947,16 @@
         <v>32</v>
       </c>
       <c r="AC25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="n">
@@ -4981,13 +4981,13 @@
         <v>3</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AP25" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AR25" t="n">
         <v>45</v>
@@ -4996,10 +4996,10 @@
         <v>250</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
         <v>100</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>2.75</v>
@@ -1004,13 +1004,13 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -1034,7 +1034,7 @@
         <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1162,7 +1162,7 @@
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1193,7 +1193,7 @@
         <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>17</v>
@@ -1217,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1309,10 +1309,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1333,10 +1333,10 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1363,10 +1363,10 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
@@ -1433,7 +1433,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1471,22 +1471,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="H6" t="n">
         <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="K6" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="L6" t="n">
-        <v>8.75</v>
+        <v>10.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1495,116 +1495,116 @@
         <v>14.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="S6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="T6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="V6" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="W6" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
         <v>9.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
         <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AG6" t="n">
         <v>800</v>
       </c>
       <c r="AH6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AR6" t="n">
         <v>37</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AS6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AV6" t="n">
         <v>100</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>80</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AZ6" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BA6" t="n">
         <v>500</v>
@@ -1647,28 +1647,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O7" t="n">
         <v>1.1</v>
@@ -1689,28 +1689,28 @@
         <v>4.33</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
         <v>11</v>
       </c>
-      <c r="X7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>21</v>
@@ -1719,43 +1719,43 @@
         <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="n">
         <v>251</v>
       </c>
-      <c r="AH7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>151</v>
-      </c>
       <c r="AL7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM7" t="n">
         <v>81</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>67</v>
       </c>
       <c r="AN7" t="n">
         <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
         <v>29</v>
@@ -1767,7 +1767,7 @@
         <v>4.33</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1782,16 +1782,16 @@
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB7" t="n">
         <v>251</v>
       </c>
-      <c r="BB7" t="n">
-        <v>201</v>
-      </c>
       <c r="BC7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>51</v>
@@ -2008,7 +2008,7 @@
         <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
         <v>3.25</v>
@@ -2017,16 +2017,16 @@
         <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -2035,10 +2035,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2074,7 +2074,7 @@
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2137,7 +2137,7 @@
         <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
         <v>26</v>
@@ -2149,7 +2149,7 @@
         <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2187,149 +2187,149 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.1</v>
       </c>
-      <c r="L10" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.88</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="V10" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="W10" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z10" t="n">
         <v>25</v>
       </c>
       <c r="AA10" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS10" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AV10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AY10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="BA10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BC10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD10" t="inlineStr"/>
     </row>
@@ -2386,7 +2386,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
@@ -2407,10 +2407,10 @@
         <v>2.45</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V11" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>6.2</v>
@@ -3080,10 +3080,10 @@
         <v>2.02</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
         <v>2.65</v>
@@ -3116,7 +3116,7 @@
         <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U15" t="n">
         <v>1.7</v>
@@ -3125,31 +3125,31 @@
         <v>1.93</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF15" t="n">
         <v>60</v>
@@ -3170,7 +3170,7 @@
         <v>45</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
         <v>35</v>
@@ -3197,7 +3197,7 @@
         <v>2.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
         <v>65</v>
@@ -3213,13 +3213,13 @@
         <v>25</v>
       </c>
       <c r="BA15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB15" t="n">
         <v>120</v>
       </c>
       <c r="BC15" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD15" t="inlineStr"/>
     </row>
@@ -3273,22 +3273,22 @@
         <v>2.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3433,22 +3433,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -3457,16 +3457,16 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3475,22 +3475,22 @@
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
@@ -3508,25 +3508,25 @@
         <v>19</v>
       </c>
       <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK17" t="n">
         <v>67</v>
       </c>
-      <c r="AG17" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>81</v>
-      </c>
       <c r="AL17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
@@ -3535,7 +3535,7 @@
         <v>3.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
         <v>21</v>
@@ -3556,13 +3556,13 @@
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
         <v>126</v>
       </c>
       <c r="AX17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY17" t="n">
         <v>34</v>
@@ -3571,13 +3571,13 @@
         <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
         <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD17" t="n">
         <v>126</v>
@@ -3630,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -3651,19 +3651,19 @@
         <v>2.6</v>
       </c>
       <c r="S18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
         <v>6.5</v>
@@ -3672,13 +3672,13 @@
         <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA18" t="n">
         <v>11</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
         <v>17</v>
@@ -3687,13 +3687,13 @@
         <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
         <v>81</v>
       </c>
       <c r="AG18" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH18" t="n">
         <v>34</v>
@@ -3705,7 +3705,7 @@
         <v>41</v>
       </c>
       <c r="AK18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL18" t="n">
         <v>101</v>
@@ -3732,7 +3732,7 @@
         <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU18" t="n">
         <v>11</v>
@@ -3753,13 +3753,13 @@
         <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BB18" t="n">
         <v>301</v>
       </c>
       <c r="BC18" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3797,52 +3797,52 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
         <v>1.95</v>
       </c>
       <c r="J19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
         <v>10</v>
@@ -3851,34 +3851,34 @@
         <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
         <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI19" t="n">
         <v>8.5</v>
@@ -3893,10 +3893,10 @@
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO19" t="n">
         <v>23</v>
@@ -3908,16 +3908,16 @@
         <v>81</v>
       </c>
       <c r="AR19" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
         <v>67</v>
@@ -3926,7 +3926,7 @@
         <v>126</v>
       </c>
       <c r="AX19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AY19" t="n">
         <v>11</v>
@@ -3938,7 +3938,7 @@
         <v>41</v>
       </c>
       <c r="BB19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC19" t="n">
         <v>201</v>
@@ -4339,149 +4339,149 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="I22" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="K22" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="L22" t="n">
         <v>6.9</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>4.35</v>
+        <v>3.85</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="T22" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="V22" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="X22" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Y22" t="n">
         <v>8.25</v>
       </c>
       <c r="Z22" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD22" t="n">
         <v>9</v>
       </c>
-      <c r="AA22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AE22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AG22" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL22" t="n">
         <v>90</v>
       </c>
       <c r="AM22" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AP22" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AR22" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AS22" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AY22" t="n">
         <v>45</v>
       </c>
       <c r="AZ22" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="BA22" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BB22" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BC22" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD22" t="inlineStr"/>
     </row>
@@ -4517,40 +4517,40 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I23" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="J23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
         <v>2.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S23" t="n">
         <v>1.29</v>
@@ -4559,34 +4559,34 @@
         <v>3.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA23" t="n">
         <v>41</v>
       </c>
       <c r="AB23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="n">
         <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -4601,13 +4601,13 @@
         <v>9.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
         <v>8.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>11</v>
@@ -4616,19 +4616,19 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
         <v>151</v>
@@ -4637,7 +4637,7 @@
         <v>3.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>41</v>
@@ -4649,19 +4649,19 @@
         <v>3.75</v>
       </c>
       <c r="AY23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB23" t="n">
         <v>41</v>
       </c>
       <c r="BC23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD23" t="n">
         <v>301</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K24" t="n">
         <v>2.88</v>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O24" t="n">
         <v>1.08</v>
@@ -4741,28 +4741,28 @@
         <v>4.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
         <v>9.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA24" t="n">
         <v>10</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
         <v>29</v>
@@ -4771,10 +4771,10 @@
         <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG24" t="n">
         <v>101</v>
@@ -4786,7 +4786,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK24" t="n">
         <v>67</v>
@@ -4819,7 +4819,7 @@
         <v>4.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV24" t="n">
         <v>41</v>
@@ -4828,16 +4828,16 @@
         <v>251</v>
       </c>
       <c r="AX24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY24" t="n">
         <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB24" t="n">
         <v>81</v>
@@ -4884,86 +4884,88 @@
         <v>1.28</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I25" t="n">
         <v>9.25</v>
       </c>
       <c r="J25" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L25" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Q25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.65</v>
       </c>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W25" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="X25" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG25" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1000</v>
+      </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
         <v>30</v>
@@ -4975,40 +4977,40 @@
         <v>120</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AO25" t="n">
         <v>5.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AR25" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW25" t="n">
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AY25" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
@@ -762,25 +762,25 @@
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -795,7 +795,7 @@
         <v>2.38</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -825,7 +825,7 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -867,7 +867,7 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -977,19 +977,19 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1010,7 +1010,7 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -1019,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>17</v>
@@ -1028,16 +1028,16 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
@@ -1058,10 +1058,10 @@
         <v>501</v>
       </c>
       <c r="AX3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1076,7 +1076,7 @@
         <v>151</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1153,13 +1153,13 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
         <v>7</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1180,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1190,28 +1190,28 @@
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1229,7 +1229,7 @@
         <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
@@ -1238,10 +1238,10 @@
         <v>126</v>
       </c>
       <c r="AX4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
@@ -1250,10 +1250,10 @@
         <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1291,16 +1291,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1309,10 +1309,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1333,16 +1333,16 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1363,10 +1363,10 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
@@ -1379,7 +1379,7 @@
         <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
@@ -1421,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
@@ -1433,7 +1433,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1471,28 +1471,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.53</v>
       </c>
       <c r="K6" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="L6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.1</v>
@@ -1504,7 +1504,7 @@
         <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="S6" t="n">
         <v>1.23</v>
@@ -1519,16 +1519,16 @@
         <v>1.55</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
         <v>9.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA6" t="n">
         <v>10.75</v>
@@ -1543,25 +1543,25 @@
         <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF6" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG6" t="n">
         <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK6" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AL6" t="n">
         <v>250</v>
@@ -1588,23 +1588,23 @@
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AV6" t="n">
         <v>100</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY6" t="n">
         <v>90</v>
       </c>
       <c r="AZ6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA6" t="n">
         <v>500</v>
@@ -1650,13 +1650,13 @@
         <v>1.14</v>
       </c>
       <c r="H7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
         <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K7" t="n">
         <v>3.2</v>
@@ -1665,22 +1665,22 @@
         <v>11</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S7" t="n">
         <v>1.2</v>
@@ -1695,10 +1695,10 @@
         <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1725,7 +1725,7 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2056,13 +2056,13 @@
         <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2134,7 +2134,7 @@
         <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY9" t="n">
         <v>19</v>
@@ -2187,146 +2187,146 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W10" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD10" t="n">
         <v>5.3</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF10" t="n">
         <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>24</v>
       </c>
       <c r="AQ10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR10" t="n">
         <v>110</v>
       </c>
       <c r="AS10" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AY10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC10" t="n">
         <v>300</v>
@@ -2365,40 +2365,40 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="n">
         <v>2.47</v>
       </c>
       <c r="K11" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>7.8</v>
+        <v>8.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S11" t="n">
         <v>1.39</v>
@@ -2407,31 +2407,31 @@
         <v>2.45</v>
       </c>
       <c r="U11" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W11" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="X11" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>5.4</v>
@@ -2446,10 +2446,10 @@
         <v>300</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI11" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>10.5</v>
@@ -2458,19 +2458,19 @@
         <v>45</v>
       </c>
       <c r="AL11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AO11" t="n">
         <v>9.75</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>35</v>
@@ -2482,32 +2482,32 @@
         <v>200</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BA11" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB11" t="n">
         <v>120</v>
       </c>
-      <c r="BB11" t="n">
-        <v>150</v>
-      </c>
       <c r="BC11" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD11" t="inlineStr"/>
     </row>
@@ -2621,22 +2621,22 @@
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH12" t="n">
         <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
         <v>8</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
@@ -3077,46 +3077,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="J15" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>9.65</v>
+        <v>8.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T15" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="U15" t="n">
         <v>1.7</v>
@@ -3125,28 +3125,28 @@
         <v>1.93</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AE15" t="n">
         <v>13.5</v>
@@ -3158,43 +3158,43 @@
         <v>450</v>
       </c>
       <c r="AH15" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK15" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AQ15" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AR15" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AS15" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AU15" t="n">
         <v>7</v>
@@ -3204,22 +3204,22 @@
       </c>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="AY15" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BB15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC15" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD15" t="inlineStr"/>
     </row>
@@ -3255,13 +3255,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J16" t="n">
         <v>6</v>
@@ -3270,13 +3270,13 @@
         <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -3285,16 +3285,16 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
         <v>1.91</v>
@@ -3303,7 +3303,7 @@
         <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X16" t="n">
         <v>29</v>
@@ -3321,25 +3321,25 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
         <v>7.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.5</v>
@@ -3351,7 +3351,7 @@
         <v>13</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
         <v>7</v>
@@ -3369,10 +3369,10 @@
         <v>126</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
         <v>8.5</v>
@@ -3388,10 +3388,10 @@
         <v>8</v>
       </c>
       <c r="AZ16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB16" t="n">
         <v>51</v>
@@ -3627,7 +3627,7 @@
         <v>1.53</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L18" t="n">
         <v>12</v>
@@ -3639,10 +3639,10 @@
         <v>19</v>
       </c>
       <c r="O18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q18" t="n">
         <v>1.48</v>
@@ -3669,16 +3669,16 @@
         <v>6.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA18" t="n">
         <v>11</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
         <v>17</v>
@@ -3696,10 +3696,10 @@
         <v>501</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -3708,7 +3708,7 @@
         <v>251</v>
       </c>
       <c r="AL18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM18" t="n">
         <v>81</v>
@@ -3753,13 +3753,13 @@
         <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BB18" t="n">
         <v>301</v>
       </c>
       <c r="BC18" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3827,10 +3827,10 @@
         <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3982,7 +3982,7 @@
         <v>1.57</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
@@ -4000,25 +4000,25 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
@@ -4045,13 +4045,13 @@
         <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
         <v>7.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>67</v>
@@ -4075,7 +4075,7 @@
         <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
         <v>3.5</v>
@@ -4096,7 +4096,7 @@
         <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU20" t="n">
         <v>9</v>
@@ -4111,7 +4111,7 @@
         <v>7</v>
       </c>
       <c r="AY20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
         <v>41</v>
@@ -4123,7 +4123,7 @@
         <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD20" t="n">
         <v>81</v>
@@ -4161,22 +4161,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K21" t="n">
         <v>2.22</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -4185,16 +4185,16 @@
         <v>7.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R21" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S21" t="n">
         <v>1.37</v>
@@ -4203,25 +4203,25 @@
         <v>2.85</v>
       </c>
       <c r="U21" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X21" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB21" t="n">
         <v>26</v>
@@ -4230,7 +4230,7 @@
         <v>7.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
@@ -4242,31 +4242,31 @@
         <v>600</v>
       </c>
       <c r="AH21" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AL21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM21" t="n">
         <v>50</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ21" t="n">
         <v>25</v>
@@ -4288,10 +4288,10 @@
       </c>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AY21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
         <v>32</v>
@@ -4303,7 +4303,7 @@
         <v>200</v>
       </c>
       <c r="BC21" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD21" t="inlineStr"/>
     </row>
@@ -4339,46 +4339,46 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.36</v>
       </c>
-      <c r="H22" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.34</v>
-      </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="U22" t="n">
         <v>1.93</v>
@@ -4387,31 +4387,31 @@
         <v>1.78</v>
       </c>
       <c r="W22" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="X22" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y22" t="n">
         <v>8.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AA22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AF22" t="n">
         <v>90</v>
@@ -4420,65 +4420,65 @@
         <v>700</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AL22" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN22" t="n">
         <v>3.2</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS22" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV22" t="n">
         <v>80</v>
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AY22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA22" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BB22" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC22" t="n">
         <v>450</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H24" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.8</v>
@@ -4720,7 +4720,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O24" t="n">
         <v>1.08</v>
@@ -4747,13 +4747,13 @@
         <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
         <v>12</v>
@@ -4768,13 +4768,13 @@
         <v>29</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="n">
         <v>101</v>
@@ -4884,7 +4884,7 @@
         <v>1.28</v>
       </c>
       <c r="H25" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
         <v>9.25</v>
@@ -4893,16 +4893,16 @@
         <v>1.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L25" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.19</v>
@@ -4911,46 +4911,46 @@
         <v>3.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S25" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="T25" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="U25" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W25" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y25" t="n">
         <v>8.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC25" t="n">
         <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE25" t="n">
         <v>24</v>
@@ -4962,16 +4962,16 @@
         <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK25" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="n">
         <v>120</v>
@@ -4995,10 +4995,10 @@
         <v>40</v>
       </c>
       <c r="AS25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU25" t="n">
         <v>9</v>
@@ -5010,19 +5010,19 @@
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AY25" t="n">
         <v>55</v>
       </c>
       <c r="AZ25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA25" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BB25" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -762,7 +762,7 @@
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -771,16 +771,16 @@
         <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -795,7 +795,7 @@
         <v>2.38</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -825,7 +825,7 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -867,7 +867,7 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
         <v>2.15</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -986,10 +986,10 @@
         <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1001,7 +1001,7 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1010,7 +1010,7 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -1019,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>17</v>
@@ -1028,7 +1028,7 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
@@ -1037,7 +1037,7 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
@@ -1058,7 +1058,7 @@
         <v>501</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1153,25 +1153,25 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1180,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1190,34 +1190,34 @@
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1229,7 +1229,7 @@
         <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
@@ -1238,22 +1238,22 @@
         <v>126</v>
       </c>
       <c r="AX4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1294,83 +1294,83 @@
         <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.57</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.62</v>
       </c>
-      <c r="T5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
         <v>19</v>
@@ -1379,7 +1379,7 @@
         <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
@@ -1391,25 +1391,25 @@
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1421,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
@@ -1433,7 +1433,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1471,46 +1471,46 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="H6" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="I6" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="K6" t="n">
-        <v>2.65</v>
+        <v>2.87</v>
       </c>
       <c r="L6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>14.7</v>
+        <v>16</v>
       </c>
       <c r="O6" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P6" t="n">
-        <v>5.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="S6" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="T6" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="U6" t="n">
         <v>2.15</v>
@@ -1519,16 +1519,16 @@
         <v>1.55</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA6" t="n">
         <v>10.75</v>
@@ -1537,71 +1537,71 @@
         <v>35</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="n">
         <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AI6" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AJ6" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AK6" t="n">
         <v>800</v>
       </c>
       <c r="AL6" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AM6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS6" t="n">
         <v>175</v>
       </c>
-      <c r="AN6" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>250</v>
-      </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AZ6" t="n">
         <v>70</v>
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1671,10 +1671,10 @@
         <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
         <v>1.33</v>
@@ -1689,10 +1689,10 @@
         <v>4.33</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>11</v>
@@ -1704,70 +1704,70 @@
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
         <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
       </c>
       <c r="AI7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL7" t="n">
         <v>81</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>101</v>
-      </c>
       <c r="AM7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN7" t="n">
         <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
         <v>29</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT7" t="n">
         <v>4.33</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1782,16 +1782,16 @@
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
         <v>301</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>51</v>
@@ -2005,28 +2005,28 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.1</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -2035,10 +2035,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2056,13 +2056,13 @@
         <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2071,7 +2071,7 @@
         <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2134,7 +2134,7 @@
         <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>19</v>
@@ -2386,13 +2386,13 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>8.85</v>
+        <v>8.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.22</v>
+        <v>3.37</v>
       </c>
       <c r="Q11" t="n">
         <v>1.88</v>
@@ -2407,10 +2407,10 @@
         <v>2.45</v>
       </c>
       <c r="U11" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="W11" t="n">
         <v>5.9</v>
@@ -3255,22 +3255,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -3297,16 +3297,16 @@
         <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
         <v>15</v>
       </c>
       <c r="X16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
         <v>17</v>
@@ -3345,7 +3345,7 @@
         <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
         <v>13</v>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY16" t="n">
         <v>8</v>
@@ -3391,13 +3391,13 @@
         <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB16" t="n">
         <v>51</v>
       </c>
       <c r="BC16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
         <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J17" t="n">
         <v>2.1</v>
@@ -3496,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
         <v>10</v>
@@ -3505,7 +3505,7 @@
         <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
@@ -3529,10 +3529,10 @@
         <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3541,7 +3541,7 @@
         <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
@@ -3553,7 +3553,7 @@
         <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3562,10 +3562,10 @@
         <v>126</v>
       </c>
       <c r="AX17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
         <v>41</v>
@@ -3639,16 +3639,16 @@
         <v>19</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R18" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S18" t="n">
         <v>1.25</v>
@@ -3711,7 +3711,7 @@
         <v>126</v>
       </c>
       <c r="AM18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN18" t="n">
         <v>3.2</v>
@@ -3797,19 +3797,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J19" t="n">
         <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
         <v>2.63</v>
@@ -3827,10 +3827,10 @@
         <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3863,7 +3863,7 @@
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
@@ -3896,7 +3896,7 @@
         <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
         <v>23</v>
@@ -3920,13 +3920,13 @@
         <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
         <v>126</v>
       </c>
       <c r="AX19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY19" t="n">
         <v>11</v>
@@ -3941,7 +3941,7 @@
         <v>51</v>
       </c>
       <c r="BC19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD19" t="n">
         <v>126</v>
@@ -3979,22 +3979,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -4021,16 +4021,16 @@
         <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W20" t="n">
         <v>6</v>
       </c>
       <c r="X20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
@@ -4039,7 +4039,7 @@
         <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
         <v>29</v>
@@ -4048,10 +4048,10 @@
         <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
         <v>67</v>
@@ -4063,25 +4063,25 @@
         <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ20" t="n">
         <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL20" t="n">
         <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
@@ -4108,10 +4108,10 @@
         <v>81</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ20" t="n">
         <v>41</v>
@@ -4123,7 +4123,7 @@
         <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD20" t="n">
         <v>81</v>
@@ -4161,22 +4161,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="J21" t="n">
         <v>2.15</v>
       </c>
       <c r="K21" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -4185,7 +4185,7 @@
         <v>7.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
         <v>3.45</v>
@@ -4200,40 +4200,40 @@
         <v>1.37</v>
       </c>
       <c r="T21" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V21" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W21" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
         <v>12.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC21" t="n">
         <v>7.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF21" t="n">
         <v>75</v>
@@ -4242,16 +4242,16 @@
         <v>600</v>
       </c>
       <c r="AH21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL21" t="n">
         <v>50</v>
@@ -4260,25 +4260,25 @@
         <v>50</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO21" t="n">
         <v>7.7</v>
       </c>
       <c r="AP21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR21" t="n">
         <v>55</v>
       </c>
       <c r="AS21" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU21" t="n">
         <v>7.6</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AY21" t="n">
         <v>29</v>
@@ -4303,7 +4303,7 @@
         <v>200</v>
       </c>
       <c r="BC21" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD21" t="inlineStr"/>
     </row>
@@ -4339,149 +4339,149 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="H22" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L22" t="n">
         <v>7</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.5</v>
-      </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y22" t="n">
         <v>8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>8.25</v>
       </c>
       <c r="Z22" t="n">
         <v>9.25</v>
       </c>
       <c r="AA22" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB22" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL22" t="n">
         <v>90</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>80</v>
       </c>
       <c r="AM22" t="n">
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ22" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AS22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AV22" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AY22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA22" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BB22" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC22" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD22" t="inlineStr"/>
     </row>
@@ -4517,22 +4517,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="H23" t="n">
         <v>4.33</v>
       </c>
       <c r="I23" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K23" t="n">
         <v>2.5</v>
       </c>
       <c r="L23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -4541,16 +4541,16 @@
         <v>17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S23" t="n">
         <v>1.29</v>
@@ -4565,22 +4565,22 @@
         <v>2.2</v>
       </c>
       <c r="W23" t="n">
+        <v>21</v>
+      </c>
+      <c r="X23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y23" t="n">
         <v>19</v>
       </c>
-      <c r="X23" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>17</v>
-      </c>
       <c r="Z23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA23" t="n">
         <v>41</v>
       </c>
       <c r="AB23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="n">
         <v>17</v>
@@ -4601,13 +4601,13 @@
         <v>9.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>8.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>11</v>
@@ -4616,10 +4616,10 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
@@ -4628,7 +4628,7 @@
         <v>81</v>
       </c>
       <c r="AR23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS23" t="n">
         <v>151</v>
@@ -4637,7 +4637,7 @@
         <v>3.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>41</v>
@@ -4661,7 +4661,7 @@
         <v>41</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD23" t="n">
         <v>301</v>
@@ -4720,7 +4720,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O24" t="n">
         <v>1.08</v>
@@ -4729,10 +4729,10 @@
         <v>8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S24" t="n">
         <v>1.18</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I2" t="n">
         <v>4.2</v>
       </c>
-      <c r="I2" t="n">
-        <v>4.33</v>
-      </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
@@ -765,28 +765,28 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.53</v>
@@ -795,7 +795,7 @@
         <v>2.38</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -825,7 +825,7 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -864,10 +864,10 @@
         <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
@@ -938,13 +938,13 @@
         <v>2.15</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -986,10 +986,10 @@
         <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1001,16 +1001,16 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -1019,16 +1019,16 @@
         <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
@@ -1037,7 +1037,7 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
@@ -1058,7 +1058,7 @@
         <v>501</v>
       </c>
       <c r="AX3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1477,16 +1477,16 @@
         <v>6.6</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.44</v>
       </c>
       <c r="K6" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="L6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1495,22 +1495,22 @@
         <v>16</v>
       </c>
       <c r="O6" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>5.75</v>
+        <v>5.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R6" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="U6" t="n">
         <v>2.15</v>
@@ -1519,13 +1519,13 @@
         <v>1.55</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
         <v>6.4</v>
@@ -1546,34 +1546,34 @@
         <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG6" t="n">
         <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
         <v>800</v>
       </c>
       <c r="AL6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
@@ -1588,7 +1588,7 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
@@ -1598,13 +1598,13 @@
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AZ6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA6" t="n">
         <v>500</v>
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
         <v>1.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1701,13 +1701,13 @@
         <v>7.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>7.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
         <v>26</v>
@@ -1719,31 +1719,31 @@
         <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM7" t="n">
         <v>81</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>67</v>
       </c>
       <c r="AN7" t="n">
         <v>3.4</v>
@@ -1755,13 +1755,13 @@
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
         <v>29</v>
       </c>
       <c r="AS7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
         <v>4.33</v>
@@ -1829,46 +1829,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.9</v>
+        <v>9.25</v>
       </c>
       <c r="H8" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="J8" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="U8" t="n">
         <v>2.02</v>
@@ -1877,40 +1877,40 @@
         <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="X8" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z8" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
         <v>100</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF8" t="n">
         <v>120</v>
       </c>
       <c r="AG8" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>6.6</v>
@@ -1919,54 +1919,54 @@
         <v>9.25</v>
       </c>
       <c r="AK8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM8" t="n">
         <v>32</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ8" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AR8" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV8" t="n">
         <v>90</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AY8" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="BB8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BC8" t="n">
         <v>250</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
         <v>2.88</v>
@@ -2020,7 +2020,7 @@
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -2029,16 +2029,16 @@
         <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2053,22 +2053,22 @@
         <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>9.5</v>
@@ -2092,19 +2092,19 @@
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2134,16 +2134,16 @@
         <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY9" t="n">
         <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
         <v>81</v>
@@ -2543,22 +2543,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K12" t="n">
         <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2585,10 +2585,10 @@
         <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
         <v>23</v>
@@ -2603,7 +2603,7 @@
         <v>126</v>
       </c>
       <c r="AA12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="n">
         <v>67</v>
@@ -2615,19 +2615,19 @@
         <v>9.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH12" t="n">
         <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>9</v>
@@ -2636,7 +2636,7 @@
         <v>8</v>
       </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
@@ -2651,10 +2651,10 @@
         <v>41</v>
       </c>
       <c r="AQ12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AR12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS12" t="n">
         <v>401</v>
@@ -2663,7 +2663,7 @@
         <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
@@ -2679,7 +2679,7 @@
         <v>19</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>41</v>
@@ -3255,40 +3255,40 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3306,7 +3306,7 @@
         <v>15</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
         <v>17</v>
@@ -3324,7 +3324,7 @@
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
@@ -3345,7 +3345,7 @@
         <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL16" t="n">
         <v>13</v>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AY16" t="n">
         <v>8</v>
@@ -3391,13 +3391,13 @@
         <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
@@ -3496,16 +3496,16 @@
         <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
         <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
@@ -3520,7 +3520,7 @@
         <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
         <v>67</v>
@@ -3615,10 +3615,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -3630,25 +3630,25 @@
         <v>2.88</v>
       </c>
       <c r="L18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R18" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S18" t="n">
         <v>1.25</v>
@@ -3696,10 +3696,10 @@
         <v>501</v>
       </c>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -3708,10 +3708,10 @@
         <v>251</v>
       </c>
       <c r="AL18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AM18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="n">
         <v>3.2</v>
@@ -3723,7 +3723,7 @@
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
         <v>34</v>
@@ -3797,22 +3797,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3827,10 +3827,10 @@
         <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3845,13 +3845,13 @@
         <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
         <v>41</v>
@@ -3884,10 +3884,10 @@
         <v>8.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
         <v>17</v>
@@ -3929,13 +3929,13 @@
         <v>3.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ19" t="n">
         <v>23</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB19" t="n">
         <v>51</v>
@@ -3979,46 +3979,46 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
@@ -4030,7 +4030,7 @@
         <v>6</v>
       </c>
       <c r="X20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
@@ -4039,16 +4039,16 @@
         <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4057,19 +4057,19 @@
         <v>67</v>
       </c>
       <c r="AG20" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
         <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL20" t="n">
         <v>41</v>
@@ -4081,7 +4081,7 @@
         <v>3.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
@@ -4096,7 +4096,7 @@
         <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
         <v>9</v>
@@ -4108,7 +4108,7 @@
         <v>81</v>
       </c>
       <c r="AX20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY20" t="n">
         <v>34</v>
@@ -4161,76 +4161,76 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="n">
         <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>4.85</v>
+        <v>5.6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T21" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="U21" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="V21" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X21" t="n">
         <v>7</v>
-      </c>
-      <c r="X21" t="n">
-        <v>7.6</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
         <v>12.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
         <v>16.5</v>
@@ -4242,31 +4242,31 @@
         <v>600</v>
       </c>
       <c r="AH21" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AL21" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ21" t="n">
         <v>24</v>
@@ -4275,32 +4275,32 @@
         <v>55</v>
       </c>
       <c r="AS21" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV21" t="n">
         <v>70</v>
       </c>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AZ21" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA21" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB21" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC21" t="n">
         <v>450</v>
@@ -4339,76 +4339,76 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="I22" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R22" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="S22" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="T22" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z22" t="n">
         <v>9.25</v>
       </c>
       <c r="AA22" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB22" t="n">
         <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE22" t="n">
         <v>18</v>
@@ -4417,16 +4417,16 @@
         <v>75</v>
       </c>
       <c r="AG22" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH22" t="n">
         <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
         <v>200</v>
@@ -4438,47 +4438,47 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AP22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AR22" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS22" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
         <v>70</v>
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AY22" t="n">
         <v>45</v>
       </c>
       <c r="AZ22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA22" t="n">
         <v>350</v>
       </c>
       <c r="BB22" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC22" t="n">
         <v>500</v>
@@ -4517,52 +4517,52 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L23" t="n">
         <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.53</v>
       </c>
-      <c r="R23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V23" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W23" t="n">
         <v>21</v>
@@ -4571,82 +4571,82 @@
         <v>34</v>
       </c>
       <c r="Y23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI23" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>8.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>8.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>11</v>
       </c>
       <c r="AM23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN23" t="n">
         <v>7.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
         <v>81</v>
       </c>
       <c r="AR23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AX23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AY23" t="n">
         <v>7.5</v>
@@ -4658,10 +4658,10 @@
         <v>21</v>
       </c>
       <c r="BB23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BC23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD23" t="n">
         <v>301</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
         <v>1.8</v>
@@ -4720,7 +4720,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O24" t="n">
         <v>1.08</v>
@@ -4729,10 +4729,10 @@
         <v>8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="S24" t="n">
         <v>1.18</v>
@@ -4747,13 +4747,13 @@
         <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z24" t="n">
         <v>12</v>
@@ -4768,13 +4768,13 @@
         <v>29</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG24" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
         <v>2.25</v>
@@ -777,16 +777,16 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.53</v>
@@ -795,7 +795,7 @@
         <v>2.38</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -825,7 +825,7 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -864,10 +864,10 @@
         <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.3</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,10 +971,10 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
@@ -986,10 +986,10 @@
         <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1001,7 +1001,7 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1010,7 +1010,7 @@
         <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -1019,25 +1019,25 @@
         <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
@@ -1058,7 +1058,7 @@
         <v>501</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
@@ -1315,10 +1315,10 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>2.6</v>
@@ -1327,16 +1327,16 @@
         <v>1.48</v>
       </c>
       <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1351,13 +1351,13 @@
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>19</v>
@@ -1391,22 +1391,22 @@
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1433,7 +1433,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1671,10 +1671,10 @@
         <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="n">
         <v>1.33</v>
@@ -2026,7 +2026,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
@@ -2558,25 +2558,25 @@
         <v>2.5</v>
       </c>
       <c r="L12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.73</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>15</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2585,13 +2585,13 @@
         <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
         <v>51</v>
@@ -2609,7 +2609,7 @@
         <v>67</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
         <v>9.5</v>
@@ -2618,13 +2618,13 @@
         <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2633,13 +2633,13 @@
         <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL12" t="n">
         <v>12</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
         <v>10</v>
@@ -2648,7 +2648,7 @@
         <v>41</v>
       </c>
       <c r="AP12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ12" t="n">
         <v>251</v>
@@ -2657,7 +2657,7 @@
         <v>251</v>
       </c>
       <c r="AS12" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AT12" t="n">
         <v>3.25</v>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AY12" t="n">
         <v>6</v>
@@ -2679,7 +2679,7 @@
         <v>19</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
         <v>41</v>
@@ -3255,40 +3255,40 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H16" t="n">
         <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
         <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L16" t="n">
         <v>2.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3297,10 +3297,10 @@
         <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
         <v>15</v>
@@ -3309,10 +3309,10 @@
         <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA16" t="n">
         <v>41</v>
@@ -3327,19 +3327,19 @@
         <v>8</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI16" t="n">
         <v>7</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>7.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.5</v>
@@ -3351,31 +3351,31 @@
         <v>13</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
         <v>3</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3394,7 +3394,7 @@
         <v>23</v>
       </c>
       <c r="BB16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC16" t="n">
         <v>151</v>
@@ -3442,49 +3442,49 @@
         <v>5.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="n">
         <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R17" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
@@ -3496,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
         <v>11</v>
@@ -3505,13 +3505,13 @@
         <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
@@ -3523,7 +3523,7 @@
         <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
@@ -3538,7 +3538,7 @@
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
         <v>26</v>
@@ -3550,7 +3550,7 @@
         <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
         <v>8.5</v>
@@ -3568,16 +3568,16 @@
         <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB17" t="n">
         <v>126</v>
       </c>
-      <c r="BB17" t="n">
-        <v>151</v>
-      </c>
       <c r="BC17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD17" t="n">
         <v>126</v>
@@ -3630,13 +3630,13 @@
         <v>2.88</v>
       </c>
       <c r="L18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
         <v>1.14</v>
@@ -3645,10 +3645,10 @@
         <v>5.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S18" t="n">
         <v>1.25</v>
@@ -3657,31 +3657,31 @@
         <v>3.75</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
         <v>6.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>7</v>
       </c>
       <c r="AA18" t="n">
         <v>11</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
         <v>13</v>
@@ -3690,7 +3690,7 @@
         <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG18" t="n">
         <v>501</v>
@@ -3699,7 +3699,7 @@
         <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -3708,37 +3708,37 @@
         <v>251</v>
       </c>
       <c r="AL18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM18" t="n">
         <v>101</v>
       </c>
-      <c r="AM18" t="n">
-        <v>81</v>
-      </c>
       <c r="AN18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO18" t="n">
         <v>5</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
         <v>3.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW18" t="n">
         <v>126</v>
@@ -3753,13 +3753,13 @@
         <v>51</v>
       </c>
       <c r="BA18" t="n">
+        <v>451</v>
+      </c>
+      <c r="BB18" t="n">
         <v>351</v>
       </c>
-      <c r="BB18" t="n">
-        <v>301</v>
-      </c>
       <c r="BC18" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3800,16 +3800,16 @@
         <v>4.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J19" t="n">
         <v>4.75</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
         <v>2.6</v>
@@ -3845,7 +3845,7 @@
         <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
         <v>21</v>
@@ -3863,7 +3863,7 @@
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
@@ -3884,7 +3884,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
@@ -3920,7 +3920,7 @@
         <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="n">
         <v>126</v>
@@ -3929,19 +3929,19 @@
         <v>3.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ19" t="n">
         <v>23</v>
       </c>
       <c r="BA19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB19" t="n">
         <v>51</v>
       </c>
       <c r="BC19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD19" t="n">
         <v>126</v>
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
         <v>4.75</v>
@@ -3997,28 +3997,28 @@
         <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
@@ -4039,16 +4039,16 @@
         <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4060,7 +4060,7 @@
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -4075,13 +4075,13 @@
         <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
         <v>3.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
@@ -4096,7 +4096,7 @@
         <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU20" t="n">
         <v>9</v>
@@ -4108,7 +4108,7 @@
         <v>81</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY20" t="n">
         <v>34</v>
@@ -4123,7 +4123,7 @@
         <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD20" t="n">
         <v>81</v>
@@ -4339,22 +4339,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="H22" t="n">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="K22" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L22" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -4366,122 +4366,122 @@
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R22" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="S22" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y22" t="n">
         <v>8</v>
       </c>
-      <c r="X22" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z22" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AA22" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>18</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>16</v>
       </c>
       <c r="AR22" t="n">
         <v>37</v>
       </c>
       <c r="AS22" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AV22" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AZ22" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="BA22" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC22" t="n">
         <v>350</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>500</v>
       </c>
       <c r="BD22" t="inlineStr"/>
     </row>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H24" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
         <v>1.8</v>
@@ -4720,7 +4720,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O24" t="n">
         <v>1.08</v>
@@ -4747,13 +4747,13 @@
         <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
         <v>12</v>
@@ -4780,13 +4780,13 @@
         <v>101</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI24" t="n">
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I2" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.33</v>
       </c>
       <c r="J2" t="n">
         <v>2.25</v>
@@ -777,13 +777,13 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
         <v>3.75</v>
@@ -798,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -944,7 +944,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -953,22 +953,22 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
@@ -995,13 +995,13 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
         <v>5.5</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1064,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA3" t="n">
         <v>41</v>
@@ -1294,52 +1294,52 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.53</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>8</v>
@@ -1351,26 +1351,28 @@
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>501</v>
+      </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>19</v>
@@ -1391,28 +1393,28 @@
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>126</v>
@@ -1421,22 +1423,22 @@
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD5" t="n">
         <v>151</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1671,10 +1673,10 @@
         <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
         <v>1.33</v>
@@ -1689,10 +1691,10 @@
         <v>4.33</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
         <v>11</v>
@@ -1701,7 +1703,7 @@
         <v>7.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>7.5</v>
@@ -1737,7 +1739,7 @@
         <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL7" t="n">
         <v>101</v>
@@ -1749,7 +1751,7 @@
         <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
@@ -1767,7 +1769,7 @@
         <v>4.33</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1785,13 +1787,13 @@
         <v>41</v>
       </c>
       <c r="BA7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB7" t="n">
         <v>251</v>
       </c>
-      <c r="BB7" t="n">
-        <v>201</v>
-      </c>
       <c r="BC7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>51</v>
@@ -2005,40 +2007,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R9" t="n">
         <v>2.03</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.83</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2053,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
         <v>10</v>
@@ -2068,13 +2070,13 @@
         <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2089,7 +2091,7 @@
         <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -2107,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -2140,7 +2142,7 @@
         <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA9" t="n">
         <v>67</v>
@@ -3630,7 +3632,7 @@
         <v>2.88</v>
       </c>
       <c r="L18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3645,10 +3647,10 @@
         <v>5.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S18" t="n">
         <v>1.25</v>
@@ -3690,7 +3692,7 @@
         <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="n">
         <v>501</v>
@@ -3705,7 +3707,7 @@
         <v>41</v>
       </c>
       <c r="AK18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL18" t="n">
         <v>126</v>
@@ -3717,7 +3719,7 @@
         <v>3.1</v>
       </c>
       <c r="AO18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
@@ -3726,7 +3728,7 @@
         <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
@@ -3747,7 +3749,7 @@
         <v>13</v>
       </c>
       <c r="AY18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ18" t="n">
         <v>51</v>
@@ -3797,22 +3799,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3827,10 +3829,10 @@
         <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3845,28 +3847,28 @@
         <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
         <v>15</v>
       </c>
       <c r="Z19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA19" t="n">
         <v>41</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>34</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3881,16 +3883,16 @@
         <v>6.5</v>
       </c>
       <c r="AI19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM19" t="n">
         <v>29</v>
@@ -3899,7 +3901,7 @@
         <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP19" t="n">
         <v>34</v>
@@ -3908,7 +3910,7 @@
         <v>81</v>
       </c>
       <c r="AR19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS19" t="n">
         <v>251</v>
@@ -3920,7 +3922,7 @@
         <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
         <v>126</v>
@@ -3929,19 +3931,19 @@
         <v>3.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB19" t="n">
         <v>51</v>
       </c>
       <c r="BC19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD19" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -1129,34 +1129,34 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1165,7 +1165,7 @@
         <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1190,13 +1190,13 @@
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1211,7 +1211,7 @@
         <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1226,7 +1226,7 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1253,10 +1253,10 @@
         <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1291,46 +1291,46 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.95</v>
-      </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1339,28 +1339,28 @@
         <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
         <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1372,16 +1372,16 @@
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
@@ -1390,28 +1390,28 @@
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
@@ -1420,25 +1420,25 @@
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD5" t="n">
         <v>126</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1649,82 +1649,82 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="R7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="T7" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
         <v>7.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
         <v>301</v>
@@ -1745,19 +1745,19 @@
         <v>101</v>
       </c>
       <c r="AM7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN7" t="n">
         <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR7" t="n">
         <v>29</v>
@@ -1766,34 +1766,34 @@
         <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
         <v>351</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>51</v>
       </c>
-      <c r="AZ7" t="n">
-        <v>41</v>
-      </c>
       <c r="BA7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB7" t="n">
         <v>301</v>
       </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD25"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,46 +1117,46 @@
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1165,19 +1165,19 @@
         <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1190,13 +1190,13 @@
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1211,7 +1211,7 @@
         <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1226,13 +1226,13 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>126</v>
@@ -1253,10 +1253,10 @@
         <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1312,13 +1312,13 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
         <v>2.35</v>
@@ -1363,16 +1363,16 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1396,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
@@ -1405,7 +1405,7 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
@@ -1438,7 +1438,7 @@
         <v>401</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1670,19 +1670,19 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R7" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
         <v>1.17</v>
@@ -1691,22 +1691,22 @@
         <v>5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
@@ -1715,7 +1715,7 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD7" t="n">
         <v>21</v>
@@ -1748,7 +1748,7 @@
         <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
         <v>4.5</v>
@@ -1757,31 +1757,31 @@
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AR7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
         <v>351</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
         <v>51</v>
@@ -1790,10 +1790,10 @@
         <v>351</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>51</v>
@@ -3770,7 +3770,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CE4iPS0B</t>
+          <t>zTsAXwtP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3780,179 +3780,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.1</v>
       </c>
-      <c r="L19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="V19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6</v>
+      </c>
+      <c r="X19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
         <v>10</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="AD19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="n">
         <v>12</v>
       </c>
-      <c r="X19" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AI19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK19" t="n">
         <v>51</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AL19" t="n">
         <v>41</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AM19" t="n">
         <v>41</v>
       </c>
-      <c r="AC19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AN19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR19" t="n">
         <v>51</v>
       </c>
-      <c r="AG19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP19" t="n">
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY19" t="n">
         <v>34</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AZ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD19" t="n">
         <v>81</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zTsAXwtP</t>
+          <t>vmPwbcL8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3962,179 +3962,175 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>5.6</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="X20" t="n">
         <v>7</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
         <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AL20" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="AV20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>81</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AY20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AZ20" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="BA20" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BB20" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BC20" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>81</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vmPwbcL8</t>
+          <t>SjMjxGbk</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4144,7 +4140,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4154,165 +4150,165 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="L21" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>4.35</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="R21" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="S21" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="T21" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="W21" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="X21" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AA21" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AG21" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR21" t="n">
         <v>37</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM21" t="n">
+      <c r="AS21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV21" t="n">
         <v>55</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>70</v>
       </c>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AY21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>32</v>
       </c>
-      <c r="AZ21" t="n">
-        <v>35</v>
-      </c>
       <c r="BA21" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB21" t="n">
         <v>200</v>
       </c>
-      <c r="BB21" t="n">
-        <v>250</v>
-      </c>
       <c r="BC21" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SjMjxGbk</t>
+          <t>2kIGj2E6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4322,175 +4318,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.42</v>
+        <v>5.25</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>6.7</v>
+        <v>1.53</v>
       </c>
       <c r="J22" t="n">
-        <v>1.88</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="L22" t="n">
-        <v>6.1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
+        <v>19</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W22" t="n">
+        <v>21</v>
+      </c>
+      <c r="X22" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD22" t="n">
         <v>9</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X22" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="AE22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA22" t="n">
         <v>21</v>
       </c>
-      <c r="AC22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>250</v>
-      </c>
       <c r="BB22" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="BC22" t="n">
-        <v>350</v>
-      </c>
-      <c r="BD22" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2kIGj2E6</t>
+          <t>23ck51Ta</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4510,133 +4510,133 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.25</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>29</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P23" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T23" t="n">
         <v>4.5</v>
       </c>
-      <c r="I23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>19</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P23" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.75</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W23" t="n">
+        <v>13</v>
+      </c>
+      <c r="X23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>21</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AK23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="n">
         <v>34</v>
       </c>
-      <c r="Y23" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AN23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP23" t="n">
         <v>13</v>
       </c>
-      <c r="AF23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="AR23" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="AS23" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AU23" t="n">
         <v>7.5</v>
@@ -4645,25 +4645,25 @@
         <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AX23" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="BA23" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD23" t="n">
         <v>301</v>
@@ -4672,7 +4672,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23ck51Ta</t>
+          <t>pMFYXKbd</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4682,354 +4682,172 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Dyn. Kyiv</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Veres-Rivne</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="H24" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K24" t="n">
-        <v>2.88</v>
+        <v>2.47</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7</v>
+      </c>
+      <c r="X24" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>29</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P24" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>13</v>
-      </c>
-      <c r="X24" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y24" t="n">
+      <c r="AK24" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU24" t="n">
         <v>9</v>
       </c>
-      <c r="Z24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV24" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AW24" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AX24" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AZ24" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="BA24" t="n">
+        <v>400</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC24" t="n">
         <v>81</v>
       </c>
-      <c r="BB24" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>126</v>
-      </c>
       <c r="BD24" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>pMFYXKbd</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>16/12/2024</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Dyn. Kyiv</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Veres-Rivne</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W25" t="n">
-        <v>7</v>
-      </c>
-      <c r="X25" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>400</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD25" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3770,7 +3770,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>zTsAXwtP</t>
+          <t>CE4iPS0B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3780,179 +3780,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W19" t="n">
+        <v>12</v>
+      </c>
+      <c r="X19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
         <v>6</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>13</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6</v>
-      </c>
-      <c r="X19" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y19" t="n">
+      <c r="AO19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>21</v>
       </c>
-      <c r="AF19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="BA19" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB19" t="n">
         <v>51</v>
       </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
+      <c r="BC19" t="n">
         <v>151</v>
       </c>
-      <c r="AT19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA19" t="n">
+      <c r="BD19" t="n">
         <v>126</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vmPwbcL8</t>
+          <t>zTsAXwtP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3962,175 +3962,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.6</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W20" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="X20" t="n">
         <v>7</v>
       </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
         <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI20" t="n">
         <v>26</v>
       </c>
-      <c r="AC20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX20" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AY20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AZ20" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BB20" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD20" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SjMjxGbk</t>
+          <t>vmPwbcL8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4140,7 +4144,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4150,165 +4154,165 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>4.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="S21" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="T21" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="U21" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="V21" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
-        <v>8.25</v>
+        <v>6.6</v>
       </c>
       <c r="X21" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM21" t="n">
         <v>55</v>
       </c>
-      <c r="AG21" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>50</v>
-      </c>
       <c r="AN21" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AR21" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AS21" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AV21" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="AY21" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AZ21" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA21" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB21" t="n">
         <v>250</v>
       </c>
-      <c r="BB21" t="n">
-        <v>200</v>
-      </c>
       <c r="BC21" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2kIGj2E6</t>
+          <t>SjMjxGbk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4318,179 +4322,175 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.25</v>
+        <v>1.42</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.53</v>
+        <v>6.7</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>1.88</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>6</v>
+        <v>4.35</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R22" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="S22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T22" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="W22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB22" t="n">
         <v>21</v>
       </c>
-      <c r="X22" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>34</v>
-      </c>
       <c r="AC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>21</v>
       </c>
-      <c r="AD22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ22" t="n">
+      <c r="AK22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>4</v>
-      </c>
       <c r="AY22" t="n">
-        <v>7.5</v>
+        <v>37</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="BA22" t="n">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="BB22" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="BC22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>301</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23ck51Ta</t>
+          <t>2kIGj2E6</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4510,133 +4510,133 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.36</v>
+        <v>5.25</v>
       </c>
       <c r="H23" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>1.53</v>
       </c>
       <c r="J23" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="O23" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="P23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="R23" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="S23" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="T23" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W23" t="n">
+        <v>21</v>
+      </c>
+      <c r="X23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE23" t="n">
         <v>13</v>
       </c>
-      <c r="X23" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>12</v>
       </c>
-      <c r="AA23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>67</v>
-      </c>
       <c r="AL23" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AM23" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>6.5</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="AR23" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AT23" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU23" t="n">
         <v>7.5</v>
@@ -4645,25 +4645,25 @@
         <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AX23" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="AY23" t="n">
-        <v>29</v>
+        <v>7.5</v>
       </c>
       <c r="AZ23" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC23" t="n">
         <v>81</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>126</v>
       </c>
       <c r="BD23" t="n">
         <v>301</v>
@@ -4672,7 +4672,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pMFYXKbd</t>
+          <t>23ck51Ta</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4682,172 +4682,354 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Dyn. Kyiv</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Veres-Rivne</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I24" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K24" t="n">
-        <v>2.47</v>
+        <v>2.88</v>
       </c>
       <c r="L24" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
+        <v>29</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>13</v>
+      </c>
+      <c r="X24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pMFYXKbd</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Dyn. Kyiv</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
         <v>17.5</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O25" t="n">
         <v>1.19</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>3.7</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q25" t="n">
         <v>1.6</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R25" t="n">
         <v>2.07</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S25" t="n">
         <v>1.27</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T25" t="n">
         <v>3.65</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U25" t="n">
         <v>2.02</v>
       </c>
-      <c r="V24" t="n">
+      <c r="V25" t="n">
         <v>1.62</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W25" t="n">
         <v>7</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X25" t="n">
         <v>6.1</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Y25" t="n">
         <v>8.75</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="Z25" t="n">
         <v>7.6</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AA25" t="n">
         <v>11</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AB25" t="n">
         <v>30</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AC25" t="n">
         <v>13</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AD25" t="n">
         <v>10.25</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AE25" t="n">
         <v>24</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AF25" t="n">
         <v>120</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AG25" t="n">
         <v>1000</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AH25" t="n">
         <v>24</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AI25" t="n">
         <v>65</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AJ25" t="n">
         <v>29</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AK25" t="n">
         <v>250</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AL25" t="n">
         <v>120</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AM25" t="n">
         <v>100</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AN25" t="n">
         <v>3.05</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AO25" t="n">
         <v>5.5</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AP25" t="n">
         <v>16</v>
       </c>
-      <c r="AQ24" t="n">
+      <c r="AQ25" t="n">
         <v>14</v>
       </c>
-      <c r="AR24" t="n">
+      <c r="AR25" t="n">
         <v>40</v>
       </c>
-      <c r="AS24" t="n">
+      <c r="AS25" t="n">
         <v>250</v>
       </c>
-      <c r="AT24" t="n">
+      <c r="AT25" t="n">
         <v>3.15</v>
       </c>
-      <c r="AU24" t="n">
+      <c r="AU25" t="n">
         <v>9</v>
       </c>
-      <c r="AV24" t="n">
+      <c r="AV25" t="n">
         <v>90</v>
       </c>
-      <c r="AW24" t="n">
+      <c r="AW25" t="n">
         <v>81</v>
       </c>
-      <c r="AX24" t="n">
+      <c r="AX25" t="n">
         <v>9.5</v>
       </c>
-      <c r="AY24" t="n">
+      <c r="AY25" t="n">
         <v>55</v>
       </c>
-      <c r="AZ24" t="n">
+      <c r="AZ25" t="n">
         <v>50</v>
       </c>
-      <c r="BA24" t="n">
+      <c r="BA25" t="n">
         <v>400</v>
       </c>
-      <c r="BB24" t="n">
+      <c r="BB25" t="n">
         <v>400</v>
       </c>
-      <c r="BC24" t="n">
+      <c r="BC25" t="n">
         <v>81</v>
       </c>
-      <c r="BD24" t="n">
+      <c r="BD25" t="n">
         <v>81</v>
       </c>
     </row>
